--- a/02 - 1000 to 2000.xlsx
+++ b/02 - 1000 to 2000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88326C8-26F7-4271-BBF7-27AB26E77775}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9037EB-BD46-4CD6-B12A-28B130CA889D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -605,6 +605,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -888,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,23 +944,23 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="17">
         <v>278.04000000000002</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="18">
         <v>361.03</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="18">
         <v>3052.16</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="18">
         <v>1971.63</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="19" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1019,43 +1024,43 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:6" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="17">
         <v>160.85</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="24">
         <v>236.04</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="24">
         <v>3655.83</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="24">
         <v>1416.31</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:6" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="16">
         <v>167.71</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="18">
         <v>234.64</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="18">
         <v>10804.79</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="16">
         <v>1991</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="19" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1139,23 +1144,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:6" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="16">
         <v>138.85</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="18">
         <v>198.15</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="18">
         <v>1418.26</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="16">
         <v>1592.73</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="25" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1179,23 +1184,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:6" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="16">
         <v>168.7</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="18">
         <v>188.5</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="18">
         <v>1313.88</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="18">
         <v>1972.24</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="19" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1219,23 +1224,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:6" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="16">
         <v>117.09</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="18">
         <v>177.07</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="18">
         <v>2270.6799999999998</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="16">
         <v>1107</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1259,43 +1264,43 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:6" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="16">
         <v>98.26</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="18">
         <v>174.14</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="18">
         <v>1110.82</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="18">
         <v>1873.26</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:6" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="17">
         <v>138.16</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="18">
         <v>171.81</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="18">
         <v>12912.63</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="18">
         <v>1309.3900000000001</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="19" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1379,23 +1384,23 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:6" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="16">
         <v>97.33</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="18">
         <v>126.23</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="18">
         <v>1953</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="18">
         <v>1803.52</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="20" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1419,23 +1424,23 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:6" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="16">
         <v>52.13</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="18">
         <v>122.41</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="18">
         <v>957.84</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="18">
         <v>1403.76</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="19" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1459,23 +1464,23 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:6" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="16">
         <v>41.37</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="18">
         <v>111.53</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="18">
         <v>655.81</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="17">
         <v>1759.54</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="19" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1579,23 +1584,23 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:6" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="16">
         <v>123.07</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="18">
         <v>100.78</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="18">
         <v>1635.3</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="17">
         <v>1680</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="19" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1699,23 +1704,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:6" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="17">
         <v>37.71</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="17">
         <v>88.49</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="17">
         <v>1575.81</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="18">
         <v>1022.13</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2259,23 +2264,23 @@
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+    <row r="69" spans="1:6" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="12">
+      <c r="B69" s="16">
         <v>27.22</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="21">
         <v>46.6</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="21">
         <v>281.74</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E69" s="18">
         <v>1055.04</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="F69" s="19" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2359,23 +2364,23 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+    <row r="74" spans="1:6" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B74" s="12">
+      <c r="B74" s="16">
         <v>32.53</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="21">
         <v>33.909999999999997</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="21">
         <v>375.79</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E74" s="18">
         <v>1169.24</v>
       </c>
-      <c r="F74" s="10" t="s">
+      <c r="F74" s="19" t="s">
         <v>45</v>
       </c>
     </row>
